--- a/ajou_notice.xlsx
+++ b/ajou_notice.xlsx
@@ -1,117 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZAMTOL\git\crol\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901BD16C-79D8-4D0C-9A21-194F1D27E897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="2550" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>기타</t>
-  </si>
-  <si>
-    <t>[중앙도서관] (2층 열람실 환경개선 공사에 따른) 자료실 휴관 안내(1/4, 토)NEW기타학술정보팀24.12.31조회수 43</t>
-  </si>
-  <si>
-    <t>2024-12-31</t>
-  </si>
-  <si>
-    <t>2025년 서울런 멘토단 참여 대학생 모집 안내(~1/13(월) 14시까지)NEW기타학생지원팀24.12.31조회수 208첨부파일</t>
-  </si>
-  <si>
-    <t>[양현재] 2025 로스쿨 입학준비반 양현재(養賢齋) 모집공고NEW기타다산학부대학교학팀24.12.31조회수 1216첨부파일</t>
-  </si>
-  <si>
-    <t>취업</t>
-  </si>
-  <si>
-    <t>[일자리+센터]	25상반기 대비 서류대비 특강, 1:1 컨설팅NEW취업대학일자리플러스센터24.12.30조회수 215</t>
-  </si>
-  <si>
-    <t>2024-12-30</t>
-  </si>
-  <si>
-    <t>[메이커스페이스] '25.01월 운영시간 안내NEW기타창업지원팀24.12.30조회수 238</t>
-  </si>
-  <si>
-    <t>[한국대학사회봉사협의회] 2025 월드프렌즈코리아 KOICA-NGO봉사단 해외봉사 단원 모집NEW기타사회봉사센터24.12.30조회수 341첨부파일</t>
-  </si>
-  <si>
-    <t>[일자리+센터] [품질경영분야] 6시그마 Black Belt 자격증 취득 과정NEW취업대학일자리플러스센터24.12.30조회수 295</t>
-  </si>
-  <si>
-    <t>장학</t>
-  </si>
-  <si>
-    <t>[교외장학] 2025학년도 관정이종환교육재단 국내대학 장학생 선발 연장공고(~01.06.(월))NEW장학학생지원팀24.12.30조회수 403첨부파일</t>
-  </si>
-  <si>
-    <t>[교외장학] 2025학년도 유한재단 장학생 선발 모집 연장공고(~1/2(목) 16시까지)NEW장학학생지원팀24.12.30조회수 442첨부파일</t>
-  </si>
-  <si>
-    <t>비교과</t>
-  </si>
-  <si>
-    <t>[학습법] 2024학년도 수업 참여 사례 공모전 안내NEW비교과교수학습개발센터24.12.30조회수 180첨부파일</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -450,169 +420,374 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>23267</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>학술</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[학생지원팀] “Ajou Challenge Training”in SPAIN_ACT 2024 (舊 세계로 문화탐방) 참가자 모집NEW학술학생지원팀25.01.01조회수 553첨부파일</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>23266</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>학술</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[중앙도서관]2025년 OA(Open Access) 출판 APC 지원 안내학술학술정보팀24.12.31조회수 514</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>23265</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>취업</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[일자리+센터] [박람회]2025 공공기관 채용정보 박람회 현장 참가자 모집(1.14~16)취업대학일자리플러스센터24.12.31조회수 412</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23264</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>취업</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[일자리+센터] [기업탐방]한국전력기술(주) Power Engineering School Winter camp 31기 모집(2명 선발)취업대학일자리플러스센터24.12.31조회수 425첨부파일</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>23263</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025학년도 신입생 예비대학 수강신청 안내기타SW융합교육원24.12.31조회수 1024첨부파일</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>23262</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[중앙도서관] (2층 열람실 환경개선 공사에 따른) 자료실 휴관 안내(1/4, 토)기타학술정보팀24.12.31조회수 389</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>23261</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[중앙도서관] (2층 열람실 환경개선 공사에 따른) 자료실 휴관 안내(1/4, 토)NEW기타학술정보팀24.12.31조회수 43</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>23260</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025년 서울런 멘토단 참여 대학생 모집 안내(~1/13(월) 14시까지)NEW기타학생지원팀24.12.31조회수 208첨부파일</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>23259</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[양현재] 2025 로스쿨 입학준비반 양현재(養賢齋) 모집공고NEW기타다산학부대학교학팀24.12.31조회수 1216첨부파일</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>23258</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>취업</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[일자리+센터]	25상반기 대비 서류대비 특강, 1:1 컨설팅NEW취업대학일자리플러스센터24.12.30조회수 215</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>23257</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[메이커스페이스] '25.01월 운영시간 안내NEW기타창업지원팀24.12.30조회수 238</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>23256</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[한국대학사회봉사협의회] 2025 월드프렌즈코리아 KOICA-NGO봉사단 해외봉사 단원 모집NEW기타사회봉사센터24.12.30조회수 341첨부파일</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>23255</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>취업</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[일자리+센터] [품질경영분야] 6시그마 Black Belt 자격증 취득 과정NEW취업대학일자리플러스센터24.12.30조회수 295</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>23254</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>장학</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[교외장학] 2025학년도 관정이종환교육재단 국내대학 장학생 선발 연장공고(~01.06.(월))NEW장학학생지원팀24.12.30조회수 403첨부파일</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>23253</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>장학</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[교외장학] 2025학년도 유한재단 장학생 선발 모집 연장공고(~1/2(목) 16시까지)NEW장학학생지원팀24.12.30조회수 442첨부파일</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>23252</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>비교과</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[학습법] 2024학년도 수업 참여 사례 공모전 안내NEW비교과교수학습개발센터24.12.30조회수 180첨부파일</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>